--- a/list_4.xlsx
+++ b/list_4.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3510,11 +3510,21 @@
       <c r="C118" t="n">
         <v>152043</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>98280000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3524,13 +3534,29 @@
         <v>7940</v>
       </c>
       <c r="C119" t="n">
-        <v>347649</v>
+        <v>348761</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>116599</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3543,7 +3569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6619,11 +6645,21 @@
       <c r="C118" t="n">
         <v>219022</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>415041</v>
+      </c>
+      <c r="E118" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F118" t="n">
+        <v>143189145</v>
+      </c>
+      <c r="G118" t="n">
+        <v>29452302240</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6633,13 +6669,29 @@
         <v>339</v>
       </c>
       <c r="C119" t="n">
-        <v>179632</v>
+        <v>181607</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>350</v>
+      </c>
+      <c r="C120" t="n">
+        <v>576858</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6652,7 +6704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9728,11 +9780,21 @@
       <c r="C118" t="n">
         <v>120476</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>129001</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F118" t="n">
+        <v>252841960</v>
+      </c>
+      <c r="G118" t="n">
+        <v>32116738360</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7900000214576721</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -9742,13 +9804,29 @@
         <v>1896</v>
       </c>
       <c r="C119" t="n">
-        <v>182910</v>
+        <v>183420</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1877</v>
+      </c>
+      <c r="C120" t="n">
+        <v>99726</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9761,7 +9839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12837,11 +12915,21 @@
       <c r="C118" t="n">
         <v>24070</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>65801</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F118" t="n">
+        <v>211879220</v>
+      </c>
+      <c r="G118" t="n">
+        <v>52526884340</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.4000000059604645</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -12858,6 +12946,22 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3170</v>
+      </c>
+      <c r="C120" t="n">
+        <v>41554</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12870,7 +12974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15946,11 +16050,21 @@
       <c r="C118" t="n">
         <v>78944</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>74137</v>
+      </c>
+      <c r="E118" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F118" t="n">
+        <v>148051589</v>
+      </c>
+      <c r="G118" t="n">
+        <v>33003035079</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.449999988079071</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -15960,13 +16074,29 @@
         <v>2085</v>
       </c>
       <c r="C119" t="n">
-        <v>87881</v>
+        <v>88652</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19044</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15979,7 +16109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19055,11 +19185,21 @@
       <c r="C118" t="n">
         <v>393927</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E118" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F118" t="n">
+        <v>163780695</v>
+      </c>
+      <c r="G118" t="n">
+        <v>44301737025</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -19069,7 +19209,7 @@
         <v>583</v>
       </c>
       <c r="C119" t="n">
-        <v>210030</v>
+        <v>210057</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -19077,6 +19217,22 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B120" t="n">
+        <v>583</v>
+      </c>
+      <c r="C120" t="n">
+        <v>259196</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_4.xlsx
+++ b/list_4.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5564,11 +5564,21 @@
       <c r="C197" t="n">
         <v>106670</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>102700000000</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -5578,13 +5588,29 @@
         <v>6530</v>
       </c>
       <c r="C198" t="n">
-        <v>1458127</v>
+        <v>1465113</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6810</v>
+      </c>
+      <c r="C199" t="n">
+        <v>384824</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5597,7 +5623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10727,11 +10753,21 @@
       <c r="C197" t="n">
         <v>242148</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E197" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F197" t="n">
+        <v>145278700</v>
+      </c>
+      <c r="G197" t="n">
+        <v>29879147200</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10741,13 +10777,29 @@
         <v>345</v>
       </c>
       <c r="C198" t="n">
-        <v>233840</v>
+        <v>233843</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>346</v>
+      </c>
+      <c r="C199" t="n">
+        <v>317814</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10760,7 +10812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15890,11 +15942,21 @@
       <c r="C197" t="n">
         <v>75482</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>131295</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F197" t="n">
+        <v>243683520</v>
+      </c>
+      <c r="G197" t="n">
+        <v>30412584896</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.800000011920929</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -15904,13 +15966,29 @@
         <v>1904</v>
       </c>
       <c r="C198" t="n">
-        <v>174647</v>
+        <v>177166</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C199" t="n">
+        <v>165751</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15923,7 +16001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21053,11 +21131,21 @@
       <c r="C197" t="n">
         <v>15359</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>65803</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F197" t="n">
+        <v>207937480</v>
+      </c>
+      <c r="G197" t="n">
+        <v>51548122520</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.4000000059604645</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -21067,13 +21155,29 @@
         <v>3155</v>
       </c>
       <c r="C198" t="n">
-        <v>43574</v>
+        <v>45447</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3145</v>
+      </c>
+      <c r="C199" t="n">
+        <v>66585</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21086,7 +21190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26216,11 +26320,21 @@
       <c r="C197" t="n">
         <v>46838</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>74201</v>
+      </c>
+      <c r="E197" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F197" t="n">
+        <v>154709085</v>
+      </c>
+      <c r="G197" t="n">
+        <v>34457350095</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.449999988079071</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -26230,13 +26344,29 @@
         <v>2075</v>
       </c>
       <c r="C198" t="n">
-        <v>45514</v>
+        <v>45516</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15832</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26249,7 +26379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31379,11 +31509,21 @@
       <c r="C197" t="n">
         <v>197029</v>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E197" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F197" t="n">
+        <v>162380860</v>
+      </c>
+      <c r="G197" t="n">
+        <v>43923089700</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -31393,7 +31533,7 @@
         <v>577</v>
       </c>
       <c r="C198" t="n">
-        <v>226564</v>
+        <v>227764</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -31401,6 +31541,22 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B199" t="n">
+        <v>572</v>
+      </c>
+      <c r="C199" t="n">
+        <v>532831</v>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_4.xlsx
+++ b/list_4.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5590,11 +5590,21 @@
       <c r="C198" t="n">
         <v>1465113</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>84890000000</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -5604,13 +5614,29 @@
         <v>6810</v>
       </c>
       <c r="C199" t="n">
-        <v>384824</v>
+        <v>384856</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6850</v>
+      </c>
+      <c r="C200" t="n">
+        <v>133796</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5623,7 +5649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10779,11 +10805,21 @@
       <c r="C198" t="n">
         <v>233843</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E198" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F198" t="n">
+        <v>143203290</v>
+      </c>
+      <c r="G198" t="n">
+        <v>29452302240</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10793,13 +10829,29 @@
         <v>346</v>
       </c>
       <c r="C199" t="n">
-        <v>317814</v>
+        <v>317864</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>346</v>
+      </c>
+      <c r="C200" t="n">
+        <v>175516</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10812,7 +10864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15968,11 +16020,21 @@
       <c r="C198" t="n">
         <v>177166</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>131295</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F198" t="n">
+        <v>249985680</v>
+      </c>
+      <c r="G198" t="n">
+        <v>31199117264</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.800000011920929</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -15982,13 +16044,29 @@
         <v>1915</v>
       </c>
       <c r="C199" t="n">
-        <v>165751</v>
+        <v>167092</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C200" t="n">
+        <v>52232</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16001,7 +16079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21157,11 +21235,21 @@
       <c r="C198" t="n">
         <v>45447</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>100637</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F198" t="n">
+        <v>317509735</v>
+      </c>
+      <c r="G198" t="n">
+        <v>51466559035</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.6200000047683716</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -21178,6 +21266,22 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3145</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27715</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21190,7 +21294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26346,11 +26450,21 @@
       <c r="C198" t="n">
         <v>45516</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>74201</v>
+      </c>
+      <c r="E198" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F198" t="n">
+        <v>153967075</v>
+      </c>
+      <c r="G198" t="n">
+        <v>34292087025</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.449999988079071</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -26360,13 +26474,29 @@
         <v>2075</v>
       </c>
       <c r="C199" t="n">
-        <v>15832</v>
+        <v>15869</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C200" t="n">
+        <v>24031</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26379,7 +26509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31535,11 +31665,21 @@
       <c r="C198" t="n">
         <v>227764</v>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E198" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F198" t="n">
+        <v>161540959</v>
+      </c>
+      <c r="G198" t="n">
+        <v>43695901305</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -31549,7 +31689,7 @@
         <v>572</v>
       </c>
       <c r="C199" t="n">
-        <v>532831</v>
+        <v>534064</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -31557,6 +31697,22 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B200" t="n">
+        <v>571</v>
+      </c>
+      <c r="C200" t="n">
+        <v>251664</v>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_4.xlsx
+++ b/list_4.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5616,11 +5616,21 @@
       <c r="C199" t="n">
         <v>384856</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>88530000000</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -5630,13 +5640,29 @@
         <v>6850</v>
       </c>
       <c r="C200" t="n">
-        <v>133796</v>
+        <v>133805</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6920</v>
+      </c>
+      <c r="C201" t="n">
+        <v>92683</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5649,7 +5675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10831,11 +10857,21 @@
       <c r="C199" t="n">
         <v>317864</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>415082</v>
+      </c>
+      <c r="E199" t="n">
+        <v>85368992</v>
+      </c>
+      <c r="F199" t="n">
+        <v>143618372</v>
+      </c>
+      <c r="G199" t="n">
+        <v>29537671232</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.4900000095367432</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10845,13 +10881,29 @@
         <v>346</v>
       </c>
       <c r="C200" t="n">
-        <v>175516</v>
+        <v>175746</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>338</v>
+      </c>
+      <c r="C201" t="n">
+        <v>385909</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10864,7 +10916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16046,11 +16098,21 @@
       <c r="C199" t="n">
         <v>167092</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>131861</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16386091</v>
+      </c>
+      <c r="F199" t="n">
+        <v>252513815</v>
+      </c>
+      <c r="G199" t="n">
+        <v>31379364265</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.800000011920929</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -16060,13 +16122,29 @@
         <v>1916</v>
       </c>
       <c r="C200" t="n">
-        <v>52232</v>
+        <v>52233</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C201" t="n">
+        <v>155906</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16079,7 +16157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21261,11 +21339,21 @@
       <c r="C199" t="n">
         <v>66585</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>106443</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16312697</v>
+      </c>
+      <c r="F199" t="n">
+        <v>334763235</v>
+      </c>
+      <c r="G199" t="n">
+        <v>51303432065</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.6499999761581421</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -21275,13 +21363,29 @@
         <v>3145</v>
       </c>
       <c r="C200" t="n">
-        <v>27715</v>
+        <v>28789</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3130</v>
+      </c>
+      <c r="C201" t="n">
+        <v>35062</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21294,7 +21398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26476,11 +26580,21 @@
       <c r="C199" t="n">
         <v>15869</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>74201</v>
+      </c>
+      <c r="E199" t="n">
+        <v>16526307</v>
+      </c>
+      <c r="F199" t="n">
+        <v>153967075</v>
+      </c>
+      <c r="G199" t="n">
+        <v>34292087025</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.449999988079071</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -26497,6 +26611,22 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2085</v>
+      </c>
+      <c r="C201" t="n">
+        <v>56785</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26509,7 +26639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31691,11 +31821,21 @@
       <c r="C199" t="n">
         <v>534064</v>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>279967</v>
+      </c>
+      <c r="E199" t="n">
+        <v>75729465</v>
+      </c>
+      <c r="F199" t="n">
+        <v>160141124</v>
+      </c>
+      <c r="G199" t="n">
+        <v>43317253980</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.3700000047683716</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -31705,7 +31845,7 @@
         <v>571</v>
       </c>
       <c r="C200" t="n">
-        <v>251664</v>
+        <v>251764</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -31713,6 +31853,22 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B201" t="n">
+        <v>570</v>
+      </c>
+      <c r="C201" t="n">
+        <v>91176</v>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
